--- a/گزارش مالی ساحتمان.xlsx
+++ b/گزارش مالی ساحتمان.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC48E9B-5DAA-4282-B720-C09A9878894D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA4410-F2B4-4CA3-B1C6-26C69F1C87E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="2280" windowWidth="16605" windowHeight="11385" xr2:uid="{ECFAADE7-ECE8-425F-9A0C-F8106FC2918E}"/>
+    <workbookView xWindow="31260" yWindow="2955" windowWidth="16605" windowHeight="11385" xr2:uid="{ECFAADE7-ECE8-425F-9A0C-F8106FC2918E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>واحد 1</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>مهر 01</t>
+  </si>
+  <si>
+    <t>;td hsh</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +674,9 @@
         <v>10</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/گزارش مالی ساحتمان.xlsx
+++ b/گزارش مالی ساحتمان.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA4410-F2B4-4CA3-B1C6-26C69F1C87E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150012E-4A3B-458D-AB59-0E527E0D2663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31260" yWindow="2955" windowWidth="16605" windowHeight="11385" xr2:uid="{ECFAADE7-ECE8-425F-9A0C-F8106FC2918E}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <t>مهر 01</t>
   </si>
   <si>
-    <t>;td hsh</t>
+    <t>کفی اسانسور</t>
   </si>
 </sst>
 </file>
